--- a/biology/Botanique/Verdc/Verdc..xlsx
+++ b/biology/Botanique/Verdc/Verdc..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Verdcourt, né le 20 janvier 1925 et mort le 25 octobre 2011, est un biologiste et taxonomiste britannique, très connu comme botaniste, et « Honorary Research Fellow » aux Jardins botaniques royaux de Kew à Londres (Royaume-Uni).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant de venir à Kew en 1964, il est pendant quinze ans associé à l'EAH (Herbier de l'Est africain) à Nairobi (Kenya). Bien que ses travaux les plus connus soient probablement ses nombreuses études sur la flore de l'Est africain, il a aussi apporté d'importantes contributions relatives aux mollusques terrestres africains et à l'entomologie. Bernard Verdcourt reçoit la médaille linnéenne de botanique de la Linnean Society of London en 2000[1],[2],[3]. La liste de ses publications comprend plus de mille travaux scientifiques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de venir à Kew en 1964, il est pendant quinze ans associé à l'EAH (Herbier de l'Est africain) à Nairobi (Kenya). Bien que ses travaux les plus connus soient probablement ses nombreuses études sur la flore de l'Est africain, il a aussi apporté d'importantes contributions relatives aux mollusques terrestres africains et à l'entomologie. Bernard Verdcourt reçoit la médaille linnéenne de botanique de la Linnean Society of London en 2000. La liste de ses publications comprend plus de mille travaux scientifiques.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Principaux travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Verdcourt, B. (1951-57). Notes on the snails of north-east Tanganyika Territory. [Huit parties]
 Verdcourt, B. et al. (1956–1995). Flora of Tropical East Africa. Kew Bull. and other publications. [Monographies de 71 familles]
